--- a/LuckyDrawSoftware/人员和奖品名单.xlsx
+++ b/LuckyDrawSoftware/人员和奖品名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F83C84-81AD-46E0-AE33-7C8160AEE487}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F0F45D-C5D2-4A3A-B05A-A17CF587EA34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="617">
   <si>
     <t>鹿晗</t>
   </si>
@@ -1886,6 +1886,10 @@
 注意：
 1、文本中不能出现空格
 2、复制时不包含表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾主持一姐小S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2246,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1008A1E1-A23F-440F-9226-59F843E5A9F3}">
   <dimension ref="A1:B304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4597,7 +4601,7 @@
         <v>576</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>574</v>
+        <v>616</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">

--- a/LuckyDrawSoftware/人员和奖品名单.xlsx
+++ b/LuckyDrawSoftware/人员和奖品名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F0F45D-C5D2-4A3A-B05A-A17CF587EA34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40005BDB-2247-40DF-A037-1522866E337B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1008A1E1-A23F-440F-9226-59F843E5A9F3}">
   <dimension ref="A1:B304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
